--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>576338.2580302483</v>
+        <v>524826.4267186819</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12477039.73816156</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043056</v>
+        <v>7009463.231764765</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9004556.243164403</v>
+        <v>9305723.284927275</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.68631082774855</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>187.5255871663199</v>
@@ -803,7 +803,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>138.261311358952</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>26.14297502545487</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>161.8294550022487</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>116.9725659584294</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>165.1725371760945</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>187.52558716632</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>31.82709004212274</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.40229248514497</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.52558716632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>187.52558716632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>187.52558716632</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>187.52558716632</v>
+        <v>90.99158089725994</v>
       </c>
       <c r="W7" t="n">
-        <v>165.1725371760945</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>153.8072380324135</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663201</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663201</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>179.8829354256198</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368128</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.21938066314943</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>28.91812342832879</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>187.5255871663201</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663201</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>142.3772787180913</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>32.35016756540436</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>187.5255871663201</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>249.1524003704173</v>
       </c>
       <c r="C11" t="n">
-        <v>257.7767207575095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>76.34924850973033</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>148.6151831671116</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>6.176684336810649</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.9468996330557</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>248.6774854464267</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>156.8137971778778</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>137.2614579387391</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>7.601081015447462</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>287.8586719636976</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>34.16966515648299</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>121.2877059169211</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>77.31354443380542</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>136.3896895755407</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>5.732180395783086</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>80.2097066136219</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>13.02719212039627</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>47.43217639605599</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>282.3935320802018</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>77.31354443380498</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>26.65330880849914</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>229.7965692041367</v>
+        <v>70.95561479616076</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>94.01587853653103</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>188.2196394312107</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>261.3318475681875</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>52.23543626470422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>222.1522801639398</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>343.7240673580637</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>48.26361229938157</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>138.4818930390892</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.90411925715601</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>221.1016003276197</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>33.81983805149571</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>62.40697986446754</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>81.90819638613792</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>36.34690181272008</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.0698687939114</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>176.2746049568399</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>177.6065387483027</v>
+        <v>61.26635328439163</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.76343456052627</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>140.5108562061495</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>371.26277863231</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="H2" t="n">
         <v>15.00204697330559</v>
@@ -4330,22 +4330,22 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020263</v>
@@ -4363,19 +4363,19 @@
         <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>204.4218319897903</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X2" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>348.3473131497357</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8127551766207</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4433,28 +4433,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>344.079722251358</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>154.6599372348733</v>
       </c>
       <c r="X3" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>379.034098818555</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>210.0979158906481</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>210.0979158906481</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>210.0979158906481</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>210.0979158906481</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>41.40909245356303</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
         <v>15.00204697330559</v>
@@ -4491,49 +4491,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>100.3335179349382</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638718</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>652.2303032981982</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652795</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652795</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.6825636487949</v>
+        <v>670.32375641013</v>
       </c>
       <c r="C5" t="n">
-        <v>560.6825636487949</v>
+        <v>670.32375641013</v>
       </c>
       <c r="D5" t="n">
-        <v>560.6825636487949</v>
+        <v>670.32375641013</v>
       </c>
       <c r="E5" t="n">
-        <v>560.6825636487949</v>
+        <v>670.32375641013</v>
       </c>
       <c r="F5" t="n">
-        <v>393.8416170062752</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4218319897904</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678495</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058944</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079183</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644753</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985584</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020266</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>560.6825636487949</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.6825636487949</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.0020469733056</v>
+        <v>190.6423726511773</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0020469733056</v>
+        <v>190.6423726511773</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0020469733056</v>
+        <v>190.6423726511773</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0020469733056</v>
+        <v>190.6423726511773</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>190.6423726511773</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>53.24568620024448</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140246</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476351</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>734.5444774681637</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>583.26140202276</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>583.26140202276</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U6" t="n">
-        <v>393.8416170062752</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V6" t="n">
-        <v>204.4218319897904</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="W6" t="n">
-        <v>15.0020469733056</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="X6" t="n">
-        <v>15.0020469733056</v>
+        <v>190.6423726511773</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.0020469733056</v>
+        <v>190.6423726511773</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7151088594234</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>216.0634826394161</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>401.7138139340728</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>587.3641452287296</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>750.1023486652798</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652798</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>750.1023486652798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>750.1023486652798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>750.1023486652798</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>560.6825636487949</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>371.2627786323101</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V7" t="n">
-        <v>181.8429936158253</v>
+        <v>530.6887613995401</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>264.3111048323622</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>36.32155393434483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>738.6222485201479</v>
+        <v>1052.086081397647</v>
       </c>
       <c r="C8" t="n">
-        <v>549.2024635036629</v>
+        <v>1052.086081397647</v>
       </c>
       <c r="D8" t="n">
-        <v>549.2024635036629</v>
+        <v>1052.086081397647</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8416170062756</v>
+        <v>1052.086081397647</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897906</v>
+        <v>641.1001766080392</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330561</v>
+        <v>225.0691313114464</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678512</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079187</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644759</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123835</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985591</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020272</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652805</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201479</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201479</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201479</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201479</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201479</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W8" t="n">
-        <v>738.6222485201479</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="X8" t="n">
-        <v>738.6222485201479</v>
+        <v>1442.225413373458</v>
       </c>
       <c r="Y8" t="n">
-        <v>738.6222485201479</v>
+        <v>1052.086081397647</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>189.4550762544326</v>
+        <v>698.9667499039549</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330561</v>
+        <v>524.5137206228279</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330561</v>
+        <v>375.5793109615767</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330561</v>
+        <v>216.3418559561212</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330561</v>
+        <v>69.80729798300611</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330561</v>
+        <v>69.80729798300611</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330561</v>
+        <v>69.80729798300611</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330561</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024219</v>
+        <v>371.4749568374566</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772652</v>
+        <v>629.0260923974442</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>948.9329878659535</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>1291.715511860585</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>1583.074758115151</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017069</v>
+        <v>1853.295032556956</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652805</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652805</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198768</v>
+        <v>2029.49516640637</v>
       </c>
       <c r="T9" t="n">
-        <v>598.8192732198768</v>
+        <v>2000.28494072119</v>
       </c>
       <c r="U9" t="n">
-        <v>598.8192732198768</v>
+        <v>1772.183350854454</v>
       </c>
       <c r="V9" t="n">
-        <v>598.8192732198768</v>
+        <v>1537.031242622711</v>
       </c>
       <c r="W9" t="n">
-        <v>598.8192732198768</v>
+        <v>1282.79388589451</v>
       </c>
       <c r="X9" t="n">
-        <v>409.3994882033918</v>
+        <v>1074.942385688977</v>
       </c>
       <c r="Y9" t="n">
-        <v>219.9797031869068</v>
+        <v>867.182086924023</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.67898390805749</v>
+        <v>509.311966376246</v>
       </c>
       <c r="C10" t="n">
-        <v>47.67898390805749</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="D10" t="n">
-        <v>47.67898390805749</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E10" t="n">
-        <v>47.67898390805749</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>47.67898390805749</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G10" t="n">
-        <v>47.67898390805749</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H10" t="n">
-        <v>47.67898390805749</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330561</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330561</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K10" t="n">
-        <v>43.17590452428138</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L10" t="n">
-        <v>216.0634826394165</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M10" t="n">
-        <v>401.7138139340734</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N10" t="n">
-        <v>587.3641452287303</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>750.1023486652805</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652805</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q10" t="n">
-        <v>750.1023486652805</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>615.9383389575124</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S10" t="n">
-        <v>426.5185539410274</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T10" t="n">
-        <v>237.0987689245425</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="U10" t="n">
-        <v>47.67898390805749</v>
+        <v>1197.229057667671</v>
       </c>
       <c r="V10" t="n">
-        <v>47.67898390805749</v>
+        <v>942.5445694617837</v>
       </c>
       <c r="W10" t="n">
-        <v>47.67898390805749</v>
+        <v>653.1273994248231</v>
       </c>
       <c r="X10" t="n">
-        <v>47.67898390805749</v>
+        <v>653.1273994248231</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.67898390805749</v>
+        <v>653.1273994248231</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1808.800296392464</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1548.419770374778</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1190.154071768027</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392464</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y11" t="n">
-        <v>1808.800296392464</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>293.7492088846508</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>143.6325694723151</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>143.6325694723151</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1837.464090846021</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1837.464090846021</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>971.281412372397</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2782.326111562134</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="15">
@@ -5348,31 +5348,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>339.6240985328146</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>339.6240985328146</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E16" t="n">
         <v>66.51211643218342</v>
@@ -5436,16 +5436,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,10 +5457,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
         <v>1735.608663915319</v>
@@ -5469,19 +5469,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610488</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046014</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676408</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696235</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260934</v>
+        <v>521.2725633630544</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1363.124011696102</v>
+        <v>1887.813801820604</v>
       </c>
       <c r="C17" t="n">
-        <v>994.1614947556907</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>635.8957961489402</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
@@ -5530,37 +5530,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V17" t="n">
-        <v>2866.09759726723</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W17" t="n">
-        <v>2513.328941997116</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X17" t="n">
-        <v>2139.863183736036</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y17" t="n">
-        <v>1749.723851760224</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,34 +5612,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.8928126690276</v>
+        <v>499.9630948243446</v>
       </c>
       <c r="C19" t="n">
-        <v>241.8928126690276</v>
+        <v>499.9630948243446</v>
       </c>
       <c r="D19" t="n">
-        <v>241.8928126690276</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E19" t="n">
-        <v>241.8928126690276</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577775</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W19" t="n">
-        <v>872.3234075408147</v>
+        <v>902.4041387981144</v>
       </c>
       <c r="X19" t="n">
-        <v>644.3338566427974</v>
+        <v>902.4041387981144</v>
       </c>
       <c r="Y19" t="n">
-        <v>423.5412774992673</v>
+        <v>681.6115596545843</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1767.878520285689</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C20" t="n">
-        <v>1398.916003345277</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D20" t="n">
-        <v>1040.650304738527</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="E20" t="n">
-        <v>654.8620521402825</v>
+        <v>927.0852846661712</v>
       </c>
       <c r="F20" t="n">
-        <v>364.0957168234162</v>
+        <v>516.0993798765637</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>101.0269297215602</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,10 +5752,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>2158.017852261501</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y20" t="n">
-        <v>1767.878520285689</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1783.876212293104</v>
+        <v>651.5308283972842</v>
       </c>
       <c r="C22" t="n">
-        <v>1614.940029365197</v>
+        <v>651.5308283972842</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952861</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952861</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>3247.511332282094</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U22" t="n">
-        <v>2958.408465407738</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>2703.723977201851</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>2414.30680716489</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X22" t="n">
-        <v>2186.317256266873</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y22" t="n">
-        <v>1965.524677123343</v>
+        <v>651.5308283972842</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2071.975386180639</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C23" t="n">
-        <v>1934.208022973022</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,10 +5989,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>2071.975386180639</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>2071.975386180639</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1007.446783179745</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="C25" t="n">
-        <v>838.5106002518381</v>
+        <v>293.7492088846508</v>
       </c>
       <c r="D25" t="n">
-        <v>688.3939608395024</v>
+        <v>293.7492088846508</v>
       </c>
       <c r="E25" t="n">
-        <v>540.4808672571093</v>
+        <v>293.7492088846508</v>
       </c>
       <c r="F25" t="n">
-        <v>393.5909197591989</v>
+        <v>293.7492088846508</v>
       </c>
       <c r="G25" t="n">
-        <v>225.8880831339178</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218342</v>
@@ -6177,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088493</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>1637.877378051532</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>1409.887827153515</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y25" t="n">
-        <v>1189.095248009985</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1636.624422581789</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6262,16 +6262,16 @@
         <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2786.829352882803</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2786.829352882803</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X26" t="n">
-        <v>2413.363594621723</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.224262645911</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1861.970701620179</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C28" t="n">
-        <v>1693.034518692272</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D28" t="n">
-        <v>1542.917879279936</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.823389952861</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.823389952861</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>1900.372013938494</v>
       </c>
       <c r="U28" t="n">
-        <v>3036.502954734814</v>
+        <v>1611.269147064137</v>
       </c>
       <c r="V28" t="n">
-        <v>2781.818466528927</v>
+        <v>1356.58465885825</v>
       </c>
       <c r="W28" t="n">
-        <v>2492.401296491966</v>
+        <v>1067.16748882129</v>
       </c>
       <c r="X28" t="n">
-        <v>2264.411745593949</v>
+        <v>1067.16748882129</v>
       </c>
       <c r="Y28" t="n">
-        <v>2043.619166450419</v>
+        <v>846.3749096777597</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.40402049088</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="E29" t="n">
-        <v>709.6157678926361</v>
+        <v>888.7508585514952</v>
       </c>
       <c r="F29" t="n">
-        <v>298.6298631030285</v>
+        <v>477.7649537618876</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>475.3976737148905</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>986.3598813409312</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>696.9427113039706</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>468.9531604059532</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y31" t="n">
-        <v>248.1605812624231</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038042</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.40402049088</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926361</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>298.6298631030285</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102164</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
         <v>2407.411984886741</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2026.185729954274</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C34" t="n">
-        <v>2026.185729954274</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D34" t="n">
-        <v>1876.069090541939</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>1876.069090541939</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3272.842754675125</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3081.156870501952</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2859.390255071478</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U34" t="n">
-        <v>2570.287388197121</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V34" t="n">
-        <v>2315.602899991235</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W34" t="n">
-        <v>2026.185729954274</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X34" t="n">
-        <v>2026.185729954274</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y34" t="n">
-        <v>2026.185729954274</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1480.516858765517</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C35" t="n">
-        <v>1111.554341825106</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="D35" t="n">
-        <v>753.2886432183552</v>
+        <v>1327.109847509768</v>
       </c>
       <c r="E35" t="n">
-        <v>753.2886432183552</v>
+        <v>941.3215949115233</v>
       </c>
       <c r="F35" t="n">
-        <v>753.2886432183552</v>
+        <v>530.3356901219158</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>115.2632399669123</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>2257.256030805451</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y35" t="n">
-        <v>1867.116698829639</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2320.988771034577</v>
+        <v>912.4415581410489</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.988771034577</v>
+        <v>912.4415581410489</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622242</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.959038039849</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.32286476305</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>2723.429815008347</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>2723.429815008347</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W37" t="n">
-        <v>2723.429815008347</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X37" t="n">
-        <v>2723.429815008347</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y37" t="n">
-        <v>2502.637235864817</v>
+        <v>1094.090022971289</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
         <v>1278.358723975039</v>
@@ -7174,10 +7174,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="39">
@@ -7253,13 +7253,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>944.7237329438971</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>775.7875500159902</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>625.6709106036544</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
         <v>66.5121164321834</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1864.257194690041</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1864.257194690041</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1575.154327815684</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1575.154327815684</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W40" t="n">
-        <v>1575.154327815684</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X40" t="n">
-        <v>1347.164776917667</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y40" t="n">
-        <v>1126.372197774137</v>
+        <v>714.5294324299979</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1661.795585684488</v>
+        <v>1533.918936517076</v>
       </c>
       <c r="C41" t="n">
-        <v>1292.833068744076</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="D41" t="n">
-        <v>934.5673701373257</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7420,7 +7420,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3242.870269703981</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3036.892522088203</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3036.892522088203</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>3036.892522088203</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2684.123866818089</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2310.658108557009</v>
       </c>
       <c r="Y41" t="n">
-        <v>1661.795585684488</v>
+        <v>1920.518776581197</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.7237329438971</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C43" t="n">
-        <v>775.7875500159902</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D43" t="n">
-        <v>625.6709106036544</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1796.920943246158</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1575.154327815684</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U43" t="n">
-        <v>1575.154327815684</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V43" t="n">
-        <v>1575.154327815684</v>
+        <v>1268.450640518902</v>
       </c>
       <c r="W43" t="n">
-        <v>1575.154327815684</v>
+        <v>979.0334704819413</v>
       </c>
       <c r="X43" t="n">
-        <v>1347.164776917667</v>
+        <v>751.043919583924</v>
       </c>
       <c r="Y43" t="n">
-        <v>1126.372197774137</v>
+        <v>530.2513404403938</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1519.109083729354</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.146566788942</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>791.8808681821918</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
@@ -7693,7 +7693,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>1519.109083729354</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="45">
@@ -7727,13 +7727,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2489.924953962484</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C46" t="n">
-        <v>2320.988771034577</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D46" t="n">
-        <v>2170.872131622242</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.959038039849</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>1876.069090541939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3181.468864810611</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>3181.468864810611</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>2892.365997936254</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>2892.365997936254</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W46" t="n">
-        <v>2892.365997936254</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X46" t="n">
-        <v>2892.365997936254</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y46" t="n">
-        <v>2671.573418792724</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
   </sheetData>
@@ -8139,10 +8139,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528931</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
@@ -8151,10 +8151,10 @@
         <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>116.9682609530345</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>98.29368706161269</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457084</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711117</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265835</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>56.27460493020698</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>42.56275186471107</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457085</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711118</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709382</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>151.7212889301279</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -22603,16 +22603,16 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>85.99672338893581</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22634,19 +22634,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>134.9587696276524</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -22682,7 +22682,7 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
         <v>45.2749999831054</v>
@@ -22691,7 +22691,7 @@
         <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>67.51167384452546</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22719,10 +22719,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>127.2906958063647</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>124.4356264912016</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>265.7612757050512</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>241.7035085656169</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637381</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399024</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>67.65223022908701</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.50893333199742</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310532</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459965</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,28 +22986,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632378014</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>98.73949432713033</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>64.61205615750805</v>
+        <v>161.1460624265681</v>
       </c>
       <c r="W7" t="n">
-        <v>121.3504611604965</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046874</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>228.1231320398483</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753913</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637379</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>124.4438693305632</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>136.3138029867179</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714234</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>163.845094882435</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715735</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>37.45470146384596</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>93.35705220546231</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>19.25466862917611</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632377997</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>98.73949432713016</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>133.5814412930632</v>
       </c>
       <c r="C11" t="n">
-        <v>107.496171013498</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>69.07179951320092</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>258.2608625745999</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>343.0642843806024</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696645</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>24.66857338515663</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>116.5954063245809</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>225.116572894384</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>11.35401507947321</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>137.8199670074838</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>119.0173737780138</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>260.4380992308375</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>27.32776710129129</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>142.2354048423638</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>228.8832021954669</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>348.9508612248999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>85.81610164540632</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.32522828944182</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>359.4438693456555</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>45.35872638993311</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>69.12041821276419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>192.8956404676701</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>181.1251564493168</v>
+        <v>339.9661108572927</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>54.59959448168132</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>222.7020862222428</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>66.42041090194743</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.69671640534311</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>3.557375225097388</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>67.19765829538977</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>246.3441520879389</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>10.13357997912314</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.3077189484569</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>181.1251564493167</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>165.1363383284339</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>146.0121421304416</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>127.3620454669744</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>27.27956540203792</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>349.8910368433335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>60.69915653753048</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>75.86303836698806</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>208.6313999077509</v>
+        <v>324.9715853716619</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>136.0055907709156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>85.19879918288763</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>472696.030108977</v>
+        <v>472696.0301089766</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>472696.0301089769</v>
+        <v>536219.375647475</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>472696.0301089772</v>
+        <v>732374.0231196634</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880521.5937460698</v>
+        <v>880521.5937460695</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460695</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>880521.5937460698</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>880521.5937460696</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>880521.5937460696</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460698</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>880521.5937460698</v>
+        <v>880521.5937460695</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>880521.5937460695</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>171419.5356187815</v>
+        <v>193768.2521372567</v>
       </c>
       <c r="D2" t="n">
-        <v>171419.5356187815</v>
+        <v>265569.88022318</v>
       </c>
       <c r="E2" t="n">
         <v>323947.2440223744</v>
@@ -26328,22 +26328,22 @@
         <v>323947.2440223744</v>
       </c>
       <c r="G2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="H2" t="n">
-        <v>323947.2440223747</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="I2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="K2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="K2" t="n">
-        <v>323947.2440223745</v>
-      </c>
       <c r="L2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="M2" t="n">
         <v>323947.2440223745</v>
@@ -26355,7 +26355,7 @@
         <v>323947.2440223745</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223746</v>
       </c>
     </row>
     <row r="3">
@@ -26368,37 +26368,37 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>84336.10254477421</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>291724.1809599824</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>276030.74576691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>19608.42855040622</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70460.80690932024</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678773</v>
+        <v>72091.35261608617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12732.5212819199</v>
+        <v>12732.52128191989</v>
       </c>
       <c r="C4" t="n">
-        <v>12732.5212819199</v>
+        <v>16333.27348544815</v>
       </c>
       <c r="D4" t="n">
-        <v>12732.5212819199</v>
+        <v>19973.84716017451</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26432,7 +26432,7 @@
         <v>11600.2349971284</v>
       </c>
       <c r="G4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="H4" t="n">
         <v>11600.2349971284</v>
@@ -26472,19 +26472,19 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161358</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26499,16 +26499,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-489655.6885955974</v>
+        <v>-501159.6520201634</v>
       </c>
       <c r="C6" t="n">
-        <v>101701.213925248</v>
+        <v>19723.3577160167</v>
       </c>
       <c r="D6" t="n">
-        <v>101701.2139252478</v>
+        <v>-137875.9118824468</v>
       </c>
       <c r="E6" t="n">
-        <v>-389093.9751698147</v>
+        <v>-41466.26660111832</v>
       </c>
       <c r="F6" t="n">
-        <v>238040.6684638528</v>
+        <v>234564.4791657917</v>
       </c>
       <c r="G6" t="n">
-        <v>238040.6684638526</v>
+        <v>234564.479165792</v>
       </c>
       <c r="H6" t="n">
-        <v>238040.668463853</v>
+        <v>234564.4791657918</v>
       </c>
       <c r="I6" t="n">
-        <v>238040.6684638527</v>
+        <v>234564.4791657916</v>
       </c>
       <c r="J6" t="n">
-        <v>188975.7237353082</v>
+        <v>185499.5344372472</v>
       </c>
       <c r="K6" t="n">
-        <v>238040.6684638528</v>
+        <v>214956.0506153854</v>
       </c>
       <c r="L6" t="n">
-        <v>238040.6684638526</v>
+        <v>164103.6722564716</v>
       </c>
       <c r="M6" t="n">
-        <v>77584.2265959755</v>
+        <v>162473.1265497056</v>
       </c>
       <c r="N6" t="n">
-        <v>238040.6684638527</v>
+        <v>234564.4791657917</v>
       </c>
       <c r="O6" t="n">
-        <v>238040.6684638528</v>
+        <v>234564.4791657918</v>
       </c>
       <c r="P6" t="n">
-        <v>238040.6684638526</v>
+        <v>234564.4791657918</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129048</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,19 +26792,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26819,16 +26819,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26962,25 +26962,25 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>65.58507285657367</v>
       </c>
       <c r="D3" t="n">
+        <v>239.6556507682059</v>
+      </c>
+      <c r="E3" t="n">
+        <v>236.0660360556142</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>541.3067596803935</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>76.18829283518627</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359726</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>76.18829283518627</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>278.4010767246573</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>76.18829283518627</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043123</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470275</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622681</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619225</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924584</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590852</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975331</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.2466083355008</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820371</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445823</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620019</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639163</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114197</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784863</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647912</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181396</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003805</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095029</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34447,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>86.19340501175009</v>
       </c>
       <c r="M4" t="n">
         <v>187.5255871663199</v>
@@ -34871,10 +34871,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>98.86065188594064</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>92.63945645062401</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>110.4529028080735</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>187.52558716632</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>187.52558716632</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>164.382023673283</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868137</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788344</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197548</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405814</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916001</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065984</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781475</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996322</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855702</v>
+        <v>272.9497721634399</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765002</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K10" t="n">
-        <v>28.45844197068259</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880153</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663201</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663201</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>524826.4267186819</v>
+        <v>569358.7188869758</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12477039.73816156</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7009463.231764765</v>
+        <v>7622616.185043054</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9305723.284927275</v>
+        <v>9004556.2431644</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>165.1725371760942</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X3" t="n">
-        <v>138.261311358952</v>
+        <v>165.1725371760941</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663199</v>
+        <v>161.8294550022483</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="U4" t="n">
-        <v>161.8294550022487</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116.9725659584294</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>182.5570120086793</v>
       </c>
     </row>
     <row r="6">
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>31.82709004212274</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>90.99158089725994</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>185.451303243786</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="H8" t="n">
-        <v>179.8829354256198</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>6.396723986040981</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.40229248514449</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>28.91812342832879</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.3772787180913</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>161.8294550022483</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>249.1524003704173</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>73.4720246799378</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>94.31414135199438</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76.34924850973033</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>148.6151831671116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>105.4063450911305</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.9468996330557</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>32.35555324687353</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>248.6774854464267</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>256.7273523546854</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>137.2614579387391</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015447603</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>378.9782692442523</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>34.16966515648299</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>121.2877059169211</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>129.290475485516</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.732180395783086</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>365.5629992635212</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>148.8861194900059</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>80.2097066136219</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>138.0957464459783</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>47.43217639605599</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>118.5512158142892</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>26.65330880849914</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>70.95561479616076</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>62.92892618005405</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>44.32299157959668</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>94.01587853653103</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>261.3318475681875</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>259.2714515328003</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>61.60385878691258</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>222.1522801639398</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>48.26361229938157</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>79.91534106849805</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>138.4818930390892</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>51.40234901104146</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>158.5596236696478</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>221.1016003276197</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.81983805149571</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>132.3569894857577</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>140.1563188766221</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.90819638613792</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>176.2746049568399</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>74.7572422460772</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>61.26635328439163</v>
+        <v>105.3097074641598</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>68.77360868269018</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>140.5108562061495</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="C2" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="D2" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E2" t="n">
-        <v>560.6825636487947</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F2" t="n">
-        <v>371.26277863231</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.8121315905891</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079178</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644746</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123819</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020252</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227587</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652795</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652795</v>
+        <v>204.42183198979</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330556</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024165</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772643</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140236</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546591</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476336</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017048</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="U3" t="n">
-        <v>533.4995072678428</v>
+        <v>560.6825636487937</v>
       </c>
       <c r="V3" t="n">
-        <v>344.079722251358</v>
+        <v>371.2627786323093</v>
       </c>
       <c r="W3" t="n">
-        <v>154.6599372348733</v>
+        <v>181.8429936158249</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349382</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295949</v>
+        <v>465.2530182692145</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>650.9033495638708</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846257</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846257</v>
       </c>
       <c r="S4" t="n">
-        <v>557.3057129681424</v>
+        <v>583.2614020227587</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681424</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="U4" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="V4" t="n">
-        <v>204.4218319897903</v>
+        <v>204.42183198979</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>670.32375641013</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="C5" t="n">
-        <v>670.32375641013</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D5" t="n">
-        <v>670.32375641013</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E5" t="n">
-        <v>670.32375641013</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201457</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372637</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>393.8416170062745</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190.6423726511773</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C6" t="n">
-        <v>190.6423726511773</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D6" t="n">
-        <v>190.6423726511773</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E6" t="n">
-        <v>190.6423726511773</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F6" t="n">
-        <v>190.6423726511773</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G6" t="n">
-        <v>53.24568620024448</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="V6" t="n">
-        <v>652.7312295849117</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="W6" t="n">
-        <v>398.4938728567101</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X6" t="n">
-        <v>190.6423726511773</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.6423726511773</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434483</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>721.9284911143035</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745502</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U7" t="n">
-        <v>622.5994491745502</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V7" t="n">
-        <v>530.6887613995401</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W7" t="n">
-        <v>264.3111048323622</v>
+        <v>562.7777999341815</v>
       </c>
       <c r="X7" t="n">
-        <v>36.32155393434483</v>
+        <v>373.358014917697</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434483</v>
+        <v>183.9382299012125</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1052.086081397647</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="C8" t="n">
-        <v>1052.086081397647</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="D8" t="n">
-        <v>1052.086081397647</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="E8" t="n">
-        <v>1052.086081397647</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="F8" t="n">
-        <v>641.1001766080392</v>
+        <v>204.42183198979</v>
       </c>
       <c r="G8" t="n">
-        <v>225.0691313114464</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.8121315905891</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079178</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644746</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123819</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>734.4611726020252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904652</v>
+        <v>589.7227393823961</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904652</v>
+        <v>589.7227393823961</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904652</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904652</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="W8" t="n">
-        <v>1815.691171634538</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="X8" t="n">
-        <v>1442.225413373458</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="Y8" t="n">
-        <v>1052.086081397647</v>
+        <v>393.8416170062743</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>698.9667499039549</v>
+        <v>30.55991817042121</v>
       </c>
       <c r="C9" t="n">
-        <v>524.5137206228279</v>
+        <v>30.55991817042121</v>
       </c>
       <c r="D9" t="n">
-        <v>375.5793109615767</v>
+        <v>30.55991817042121</v>
       </c>
       <c r="E9" t="n">
-        <v>216.3418559561212</v>
+        <v>30.55991817042121</v>
       </c>
       <c r="F9" t="n">
-        <v>69.80729798300611</v>
+        <v>30.55991817042121</v>
       </c>
       <c r="G9" t="n">
-        <v>69.80729798300611</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300611</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J9" t="n">
-        <v>214.3836900926279</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K9" t="n">
-        <v>371.4749568374566</v>
+        <v>67.13418877024165</v>
       </c>
       <c r="L9" t="n">
-        <v>629.0260923974442</v>
+        <v>183.5548280772643</v>
       </c>
       <c r="M9" t="n">
-        <v>948.9329878659535</v>
+        <v>338.7690911140236</v>
       </c>
       <c r="N9" t="n">
-        <v>1291.715511860585</v>
+        <v>512.5000587546591</v>
       </c>
       <c r="O9" t="n">
-        <v>1583.074758115151</v>
+        <v>649.2101578476336</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.295032556956</v>
+        <v>739.5989987017048</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059887</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904652</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.49516640637</v>
+        <v>598.8192732198744</v>
       </c>
       <c r="T9" t="n">
-        <v>2000.28494072119</v>
+        <v>598.8192732198744</v>
       </c>
       <c r="U9" t="n">
-        <v>1772.183350854454</v>
+        <v>409.39948820339</v>
       </c>
       <c r="V9" t="n">
-        <v>1537.031242622711</v>
+        <v>219.9797031869056</v>
       </c>
       <c r="W9" t="n">
-        <v>1282.79388589451</v>
+        <v>30.55991817042121</v>
       </c>
       <c r="X9" t="n">
-        <v>1074.942385688977</v>
+        <v>30.55991817042121</v>
       </c>
       <c r="Y9" t="n">
-        <v>867.182086924023</v>
+        <v>30.55991817042121</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>509.311966376246</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="C10" t="n">
-        <v>340.3757834483391</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2591440360034</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>373.5399563830969</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>559.1902876777532</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>721.9284911143033</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846257</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846257</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846257</v>
       </c>
       <c r="T10" t="n">
-        <v>1486.355378693647</v>
+        <v>583.2614020227587</v>
       </c>
       <c r="U10" t="n">
-        <v>1197.229057667671</v>
+        <v>393.8416170062743</v>
       </c>
       <c r="V10" t="n">
-        <v>942.5445694617837</v>
+        <v>204.42183198979</v>
       </c>
       <c r="W10" t="n">
-        <v>653.1273994248231</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="X10" t="n">
-        <v>653.1273994248231</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="Y10" t="n">
-        <v>653.1273994248231</v>
+        <v>15.00204697330556</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>1639.433183287317</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1639.433183287317</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1281.167484680567</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>895.3792320823225</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5053,16 +5053,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W11" t="n">
-        <v>2630.721789066531</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X11" t="n">
-        <v>2257.256030805451</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y11" t="n">
-        <v>2257.256030805451</v>
+        <v>1639.433183287317</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,34 +5138,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>462.6853918125577</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C13" t="n">
-        <v>293.7492088846508</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D13" t="n">
-        <v>143.6325694723151</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E13" t="n">
-        <v>143.6325694723151</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>872.3234075408147</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X13" t="n">
-        <v>644.3338566427974</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.3338566427974</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1698.509627919559</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C14" t="n">
-        <v>1329.547110979147</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D14" t="n">
-        <v>971.281412372397</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>971.281412372397</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5296,7 +5296,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y14" t="n">
-        <v>1698.509627919559</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.6240985328146</v>
+        <v>561.7003711548119</v>
       </c>
       <c r="C16" t="n">
-        <v>339.6240985328146</v>
+        <v>561.7003711548119</v>
       </c>
       <c r="D16" t="n">
-        <v>214.4252100145765</v>
+        <v>561.7003711548119</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>413.7872775724188</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>266.8973300745084</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>99.19449344922739</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5436,16 +5436,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W16" t="n">
-        <v>970.0546934046018</v>
+        <v>782.4929502983421</v>
       </c>
       <c r="X16" t="n">
-        <v>742.0651425065845</v>
+        <v>782.4929502983421</v>
       </c>
       <c r="Y16" t="n">
-        <v>521.2725633630544</v>
+        <v>561.7003711548119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1887.813801820604</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>736.8185791558167</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>325.8326743662091</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.72178906653</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796416</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X17" t="n">
-        <v>2277.953133796416</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y17" t="n">
-        <v>1887.813801820604</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>499.9630948243446</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C19" t="n">
-        <v>499.9630948243446</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124868</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300937</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1919.61668847693</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.608663915319</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U19" t="n">
-        <v>1446.505797040962</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V19" t="n">
-        <v>1191.821308835075</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W19" t="n">
-        <v>902.4041387981144</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X19" t="n">
-        <v>902.4041387981144</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y19" t="n">
-        <v>681.6115596545843</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1681.836054204827</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C20" t="n">
-        <v>1312.873537264416</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D20" t="n">
-        <v>1312.873537264416</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E20" t="n">
-        <v>927.0852846661712</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F20" t="n">
-        <v>516.0993798765637</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>101.0269297215602</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,16 +5752,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X20" t="n">
-        <v>2071.975386180639</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y20" t="n">
-        <v>1681.836054204827</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>651.5308283972842</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C22" t="n">
-        <v>651.5308283972842</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E22" t="n">
         <v>381.1049005553748</v>
@@ -5910,16 +5910,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408143</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>872.3234075408143</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="Y22" t="n">
-        <v>651.5308283972842</v>
+        <v>550.0410834832817</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1238.038871968309</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="C23" t="n">
-        <v>869.0763550278969</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1232.541828631673</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>846.7535760334285</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>435.767671243821</v>
       </c>
       <c r="G23" t="n">
         <v>66.51211643218342</v>
@@ -5992,7 +5992,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6025,16 +6025,16 @@
         <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269322</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008242</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y23" t="n">
-        <v>1624.63871203243</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>462.6853918125577</v>
+        <v>681.6115596545852</v>
       </c>
       <c r="C25" t="n">
-        <v>293.7492088846508</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D25" t="n">
-        <v>293.7492088846508</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
-        <v>293.7492088846508</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>293.7492088846508</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
         <v>66.51211643218342</v>
@@ -6150,16 +6150,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O25" t="n">
         <v>1617.076751502319</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V25" t="n">
-        <v>1161.740577577775</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W25" t="n">
-        <v>872.3234075408147</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="X25" t="n">
-        <v>644.3338566427974</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="Y25" t="n">
-        <v>644.3338566427974</v>
+        <v>681.6115596545852</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1238.038871968308</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C26" t="n">
-        <v>869.0763550278964</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="D26" t="n">
-        <v>869.0763550278964</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E26" t="n">
-        <v>869.0763550278964</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6229,13 +6229,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6256,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269321</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.778044008242</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.63871203243</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>846.3749096777597</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="C28" t="n">
-        <v>677.4387267498528</v>
+        <v>482.5946454693777</v>
       </c>
       <c r="D28" t="n">
-        <v>527.322087337517</v>
+        <v>332.478006057042</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>332.478006057042</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G28" t="n">
         <v>212.7293032143256</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1900.372013938494</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>1611.269147064137</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>1356.58465885825</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>1067.16748882129</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.16748882129</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y28" t="n">
-        <v>846.3749096777597</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1274.539111149739</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C29" t="n">
-        <v>1274.539111149739</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D29" t="n">
-        <v>1274.539111149739</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E29" t="n">
-        <v>888.7508585514952</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>477.7649537618876</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6475,13 +6475,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X29" t="n">
-        <v>2051.278283189673</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y29" t="n">
-        <v>1661.138951213861</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
@@ -6542,13 +6542,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>644.3338566427974</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C31" t="n">
-        <v>475.3976737148905</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D31" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783662</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W31" t="n">
-        <v>872.3234075408147</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X31" t="n">
-        <v>644.3338566427974</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y31" t="n">
-        <v>644.3338566427974</v>
+        <v>742.724875630924</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.813113209913</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.813113209913</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X32" t="n">
-        <v>2324.347354948834</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y32" t="n">
-        <v>1934.208022973022</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
         <v>2407.411984886741</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>530.2513404403938</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C34" t="n">
-        <v>361.3151575124869</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D34" t="n">
-        <v>361.3151575124869</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4020639300938</v>
+        <v>275.6281839168741</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>128.7382364189638</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1446.505797040963</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1446.505797040963</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>1157.088627004002</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>932.6923844141637</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y34" t="n">
-        <v>711.8998052706336</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1685.375546116518</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C35" t="n">
-        <v>1685.375546116518</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D35" t="n">
-        <v>1327.109847509768</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E35" t="n">
-        <v>941.3215949115233</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>530.3356901219158</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>115.2632399669123</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2071.97538618064</v>
+        <v>1991.252819444782</v>
       </c>
       <c r="Y35" t="n">
-        <v>2071.97538618064</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>912.4415581410489</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>912.4415581410489</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7125,22 +7125,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1875.372983430875</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="V37" t="n">
-        <v>1383.507193008249</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W37" t="n">
-        <v>1094.090022971289</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X37" t="n">
-        <v>1094.090022971289</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y37" t="n">
-        <v>1094.090022971289</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1647.321240915451</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7213,13 +7213,13 @@
         <v>2630.721789066531</v>
       </c>
       <c r="W38" t="n">
-        <v>2630.721789066531</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X38" t="n">
-        <v>2257.256030805451</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y38" t="n">
-        <v>2033.921080979572</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.3679798527295</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124868</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
         <v>66.5121164321834</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1793.600619315</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1793.600619315</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1504.497752440644</v>
       </c>
       <c r="V40" t="n">
-        <v>1224.739181610489</v>
+        <v>1504.497752440644</v>
       </c>
       <c r="W40" t="n">
-        <v>935.322011573528</v>
+        <v>1215.080582403683</v>
       </c>
       <c r="X40" t="n">
-        <v>935.322011573528</v>
+        <v>1215.080582403683</v>
       </c>
       <c r="Y40" t="n">
-        <v>714.5294324299979</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1533.918936517076</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C41" t="n">
-        <v>1164.956419576664</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="D41" t="n">
-        <v>1164.956419576664</v>
+        <v>1004.858313089351</v>
       </c>
       <c r="E41" t="n">
-        <v>779.1681669784198</v>
+        <v>619.0700604911062</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>208.0841557014987</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>208.0841557014987</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3242.870269703981</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3036.892522088203</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3036.892522088203</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>3036.892522088203</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W41" t="n">
-        <v>2684.123866818089</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X41" t="n">
-        <v>2310.658108557009</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y41" t="n">
-        <v>1920.518776581197</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>530.2513404403938</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C43" t="n">
-        <v>361.3151575124869</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1446.505797040963</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V43" t="n">
-        <v>1268.450640518902</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W43" t="n">
-        <v>979.0334704819413</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X43" t="n">
-        <v>751.043919583924</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="Y43" t="n">
-        <v>530.2513404403938</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1636.624422581789</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
         <v>66.5121164321834</v>
@@ -7666,7 +7666,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7687,13 +7687,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y44" t="n">
-        <v>1636.624422581789</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.3679798527295</v>
+        <v>678.2257657051542</v>
       </c>
       <c r="C46" t="n">
-        <v>511.4317969248226</v>
+        <v>678.2257657051542</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124868</v>
+        <v>528.1091262928185</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>380.1960327104254</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>233.306085212515</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I46" t="n">
         <v>66.5121164321834</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W46" t="n">
-        <v>1224.739181610489</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X46" t="n">
-        <v>1082.809023826499</v>
+        <v>899.0183448486844</v>
       </c>
       <c r="Y46" t="n">
-        <v>862.0164446829692</v>
+        <v>678.2257657051542</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528931</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457081</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711114</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>98.86065188594023</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777582</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>56.27460493020698</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457081</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711114</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777559</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>151.7212889301279</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -22606,16 +22606,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>162.5797212940407</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510935</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121495</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897341</v>
       </c>
     </row>
     <row r="3">
@@ -22646,7 +22646,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -22682,16 +22682,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>38.3381812437714</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310574</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599460008</v>
       </c>
       <c r="X3" t="n">
-        <v>67.51167384452546</v>
+        <v>40.60044802738335</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22728,7 +22728,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,19 +22755,19 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917636</v>
+        <v>44.95080079324794</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378057</v>
       </c>
       <c r="U4" t="n">
-        <v>124.4356264912016</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>64.61205615750848</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027114</v>
+        <v>98.99741117027148</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265.7612757050512</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>203.6809266473743</v>
       </c>
     </row>
     <row r="6">
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>67.65223022908701</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>30.23706061590696</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098472</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>161.1460624265681</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>101.071695092805</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>38.18406822271751</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577515</v>
       </c>
     </row>
     <row r="8">
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>219.3504585753919</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>225.5722460637385</v>
       </c>
       <c r="H8" t="n">
-        <v>124.4438693305632</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>63.6436733987108</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>342.844244731372</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>120.7614968806308</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>163.845094882435</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.3381812437714</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310574</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.16939599460008</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.45470146384596</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>61.8902184878518</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>98.73949432713076</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>64.61205615750848</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>98.99741117027148</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>133.5814412930632</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>333.4040210617736</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>85.51783882994292</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>69.07179951320092</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>258.2608625745999</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>243.8346236262825</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>24.66857338515663</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>112.3994616674472</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>116.5954063245809</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>154.194373298768</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>11.35401507947321</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>182.1679443159943</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>3.755572419228315</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>260.4380992308375</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>27.32776710129129</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>96.41917990352115</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>348.9508612248999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>45.35872638993226</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>18.36070160862192</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.81610164540632</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>216.5872951747047</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>359.4438693456555</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>26.86983220864208</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>192.8956404676701</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>339.9661108572927</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>323.3090124759996</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>135.5089886023406</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>54.59959448168132</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>66.42041090194743</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>110.4596491456687</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>104.4219494721156</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,22 +25125,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>3.557375225097388</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>246.3441520879389</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>289.815759609971</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>10.13357997912314</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>168.1466002651277</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>190.6813450477652</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.1363383284339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146.0121421304416</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.41203584568419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>154.4514455106984</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>27.27956540203792</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>75.86303836698806</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>143.8274111060176</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>324.9715853716619</v>
+        <v>280.9282311918938</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>97.25219957633804</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>85.19879918288763</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>536219.375647475</v>
+        <v>472696.0301089766</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>732374.0231196634</v>
+        <v>472696.0301089766</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880521.5937460695</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460698</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>880521.5937460695</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>880521.5937460696</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880521.5937460696</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>880521.5937460698</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>880521.5937460695</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="15">
@@ -26316,10 +26316,10 @@
         <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>193768.2521372567</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>265569.88022318</v>
+        <v>171419.5356187814</v>
       </c>
       <c r="E2" t="n">
         <v>323947.2440223744</v>
@@ -26328,34 +26328,34 @@
         <v>323947.2440223744</v>
       </c>
       <c r="G2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="I2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="J2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="K2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="L2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="M2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="N2" t="n">
         <v>323947.2440223746</v>
       </c>
-      <c r="H2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="P2" t="n">
         <v>323947.2440223744</v>
-      </c>
-      <c r="J2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="K2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="L2" t="n">
-        <v>323947.2440223746</v>
-      </c>
-      <c r="M2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="N2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="O2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="P2" t="n">
-        <v>323947.2440223746</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477421</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599824</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854427</v>
       </c>
       <c r="K3" t="n">
-        <v>19608.42855040622</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932024</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608617</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>12732.52128191989</v>
       </c>
       <c r="C4" t="n">
-        <v>16333.27348544815</v>
+        <v>12732.52128191989</v>
       </c>
       <c r="D4" t="n">
-        <v>19973.84716017451</v>
+        <v>12732.52128191989</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="F4" t="n">
         <v>11600.2349971284</v>
       </c>
       <c r="G4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="H4" t="n">
         <v>11600.2349971284</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161353</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161353</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26499,16 +26499,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-501159.6520201634</v>
+        <v>-490806.0849380535</v>
       </c>
       <c r="C6" t="n">
-        <v>19723.3577160167</v>
+        <v>100550.8175827915</v>
       </c>
       <c r="D6" t="n">
-        <v>-137875.9118824468</v>
+        <v>100550.8175827914</v>
       </c>
       <c r="E6" t="n">
-        <v>-41466.26660111832</v>
+        <v>-389441.5940996212</v>
       </c>
       <c r="F6" t="n">
-        <v>234564.4791657917</v>
+        <v>237693.0495340466</v>
       </c>
       <c r="G6" t="n">
-        <v>234564.479165792</v>
+        <v>237693.0495340465</v>
       </c>
       <c r="H6" t="n">
-        <v>234564.4791657918</v>
+        <v>237693.0495340466</v>
       </c>
       <c r="I6" t="n">
-        <v>234564.4791657916</v>
+        <v>237693.0495340465</v>
       </c>
       <c r="J6" t="n">
-        <v>185499.5344372472</v>
+        <v>188628.1048055022</v>
       </c>
       <c r="K6" t="n">
-        <v>214956.0506153854</v>
+        <v>237693.0495340467</v>
       </c>
       <c r="L6" t="n">
-        <v>164103.6722564716</v>
+        <v>237693.0495340467</v>
       </c>
       <c r="M6" t="n">
-        <v>162473.1265497056</v>
+        <v>77236.60766616925</v>
       </c>
       <c r="N6" t="n">
-        <v>234564.4791657917</v>
+        <v>237693.0495340467</v>
       </c>
       <c r="O6" t="n">
-        <v>234564.4791657918</v>
+        <v>237693.0495340465</v>
       </c>
       <c r="P6" t="n">
-        <v>234564.4791657918</v>
+        <v>237693.0495340466</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26819,16 +26819,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>65.58507285657367</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682059</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518627</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246569</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663193</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518627</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246573</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518627</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246569</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621732</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781699</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781423</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175009</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>100.2010091933407</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>28.45844197068189</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>172.7419126813483</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781423</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>272.9497721634399</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847781</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>28.45844197068166</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037204</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
